--- a/6.16.20 EG.xlsx
+++ b/6.16.20 EG.xlsx
@@ -571,7 +571,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>BGE</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
